--- a/user-data/kenya-total-pop/kenya-total-pop.xlsx
+++ b/user-data/kenya-total-pop/kenya-total-pop.xlsx
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 44</t>
+    <t xml:space="preserve">Source: 45</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-total-pop/kenya-total-pop.xlsx
+++ b/user-data/kenya-total-pop/kenya-total-pop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -310,12 +310,30 @@
     <t xml:space="preserve">West Pokot</t>
   </si>
   <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: kenya-total-pop</t>
   </si>
   <si>
@@ -325,7 +343,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 45</t>
+    <t xml:space="preserve">Source: 32</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -683,77 +701,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +810,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D2" t="n">
-        <v>548700</v>
+        <v>567516</v>
       </c>
     </row>
     <row r="3">
@@ -806,1298 +824,5246 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D3" t="n">
-        <v>555561</v>
+        <v>588478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D4" t="n">
-        <v>724000</v>
+        <v>610182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D5" t="n">
-        <v>724186</v>
+        <v>632588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>1362700</v>
+        <v>655641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D7" t="n">
-        <v>1375063</v>
+        <v>679256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D8" t="n">
-        <v>737100</v>
+        <v>804346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D9" t="n">
-        <v>743946</v>
+        <v>938163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D10" t="n">
-        <v>366900</v>
+        <v>745617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D11" t="n">
-        <v>369998</v>
+        <v>773157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D12" t="n">
-        <v>508500</v>
+        <v>801671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D13" t="n">
-        <v>516212</v>
+        <v>831115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>616900</v>
+        <v>861397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D15" t="n">
-        <v>623060</v>
+        <v>892429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D16" t="n">
-        <v>955200</v>
+        <v>1015048</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D17" t="n">
-        <v>963794</v>
+        <v>1232590</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D18" t="n">
-        <v>139400</v>
+        <v>1406776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D19" t="n">
-        <v>143294</v>
+        <v>1428835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D20" t="n">
-        <v>677000</v>
+        <v>1451892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D21" t="n">
-        <v>687312</v>
+        <v>1475995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>1647200</v>
+        <v>1500990</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D23" t="n">
-        <v>1660651</v>
+        <v>1526655</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>740600</v>
+        <v>1662709</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D25" t="n">
-        <v>758339</v>
+        <v>1811108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D26" t="n">
-        <v>1603400</v>
+        <v>761065</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>1623282</v>
+        <v>772999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D28" t="n">
-        <v>1098700</v>
+        <v>785473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>1109735</v>
+        <v>798514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>521100</v>
+        <v>812036</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D31" t="n">
-        <v>528054</v>
+        <v>825921</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>1142100</v>
+        <v>899525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D33" t="n">
-        <v>1152282</v>
+        <v>979809</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D34" t="n">
-        <v>952900</v>
+        <v>377942</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D35" t="n">
-        <v>968909</v>
+        <v>391900</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D36" t="n">
-        <v>997800</v>
+        <v>406355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>1012709</v>
+        <v>421282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>643100</v>
+        <v>436631</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>649931</v>
+        <v>452360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>391600</v>
+        <v>535665</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D41" t="n">
-        <v>399227</v>
+        <v>624778</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D42" t="n">
-        <v>99500</v>
+        <v>528000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D43" t="n">
-        <v>101539</v>
+        <v>532852</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D44" t="n">
-        <v>1085600</v>
+        <v>537906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D45" t="n">
-        <v>1098584</v>
+        <v>543158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>874400</v>
+        <v>548569</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D47" t="n">
-        <v>884527</v>
+        <v>554079</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>1023100</v>
+        <v>582297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D49" t="n">
-        <v>1025756</v>
+        <v>610543</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D50" t="n">
-        <v>288400</v>
+        <v>387995</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D51" t="n">
-        <v>291166</v>
+        <v>394804</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D52" t="n">
-        <v>1337700</v>
+        <v>401806</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C53" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D53" t="n">
-        <v>1356301</v>
+        <v>409007</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C54" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>907700</v>
+        <v>416389</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C55" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D55" t="n">
-        <v>917170</v>
+        <v>423931</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C56" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>920600</v>
+        <v>463891</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C57" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D57" t="n">
-        <v>939370</v>
+        <v>508772</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D58" t="n">
-        <v>935600</v>
+        <v>984293</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C59" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D59" t="n">
-        <v>942581</v>
+        <v>1006756</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C60" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D60" t="n">
-        <v>3078900</v>
+        <v>1029823</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C61" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>3138369</v>
+        <v>1053465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C62" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>1566100</v>
+        <v>1077554</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D63" t="n">
-        <v>1603325</v>
+        <v>1101901</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D64" t="n">
-        <v>742800</v>
+        <v>1225243</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D65" t="n">
-        <v>752965</v>
+        <v>1348840</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C66" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D66" t="n">
-        <v>841600</v>
+        <v>146567</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C67" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D67" t="n">
-        <v>850920</v>
+        <v>147928</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D68" t="n">
-        <v>360200</v>
+        <v>149345</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D69" t="n">
-        <v>365330</v>
+        <v>150817</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C70" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>592300</v>
+        <v>152332</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C71" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D71" t="n">
-        <v>598252</v>
+        <v>153875</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>589600</v>
+        <v>161773</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C73" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D73" t="n">
-        <v>596268</v>
+        <v>169674</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D74" t="n">
-        <v>679300</v>
+        <v>701919</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D75" t="n">
-        <v>693558</v>
+        <v>727849</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C76" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D76" t="n">
-        <v>221300</v>
+        <v>754693</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D77" t="n">
-        <v>223947</v>
+        <v>782409</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C78" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>834000</v>
+        <v>810918</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C79" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D79" t="n">
-        <v>842304</v>
+        <v>840127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C80" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>274900</v>
+        <v>994853</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D81" t="n">
-        <v>284657</v>
+        <v>1160358</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D82" t="n">
-        <v>238900</v>
+        <v>1698576</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C83" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D83" t="n">
-        <v>240075</v>
+        <v>1725211</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D84" t="n">
-        <v>809600</v>
+        <v>1753050</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C85" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>818757</v>
+        <v>1782152</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C86" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>848400</v>
+        <v>1812330</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C87" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D87" t="n">
-        <v>855399</v>
+        <v>1843320</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C88" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>872200</v>
+        <v>2007597</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C89" t="n">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="D89" t="n">
-        <v>894179</v>
+        <v>2186771</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C90" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D90" t="n">
-        <v>549000</v>
+        <v>768350</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C91" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D91" t="n">
-        <v>554622</v>
+        <v>796729</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C92" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D92" t="n">
-        <v>658100</v>
+        <v>826112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C93" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D93" t="n">
-        <v>661941</v>
+        <v>856454</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C94" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>509600</v>
+        <v>887659</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D95" t="n">
+        <v>919637</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1045996</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1270170</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1660366</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1692651</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1726128</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1760692</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1795999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1831800</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2015014</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2201180</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1133208</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1175021</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1218024</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1262127</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1307185</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1353042</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1591901</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1841958</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D114" t="n">
+        <v>540247</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D115" t="n">
+        <v>550745</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D116" t="n">
+        <v>561642</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D117" t="n">
+        <v>572889</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D118" t="n">
+        <v>584377</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>32</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D119" t="n">
+        <v>596030</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D120" t="n">
+        <v>655639</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D121" t="n">
+        <v>716215</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1176791</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1203648</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1231223</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1259489</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1288290</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1317407</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1464861</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1612630</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D130" t="n">
+        <v>989514</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1012102</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1035287</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>36</v>
+      </c>
+      <c r="B133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1059053</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1083268</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1107755</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1231745</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1355998</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1035831</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" t="s">
+        <v>39</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1045268</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1055104</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1065329</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>38</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1075866</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1086599</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1141592</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1196663</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D146" t="n">
+        <v>663906</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>40</v>
+      </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D147" t="n">
+        <v>688398</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D148" t="n">
+        <v>713591</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D149" t="n">
+        <v>739435</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D150" t="n">
+        <v>765831</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>40</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D151" t="n">
+        <v>792698</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D152" t="n">
+        <v>932641</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1079131</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>42</v>
+      </c>
+      <c r="B154" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D154" t="n">
+        <v>407658</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>42</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D155" t="n">
+        <v>422718</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>42</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D156" t="n">
+        <v>438309</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>42</v>
+      </c>
+      <c r="B157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D157" t="n">
+        <v>454412</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D158" t="n">
+        <v>470965</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>42</v>
+      </c>
+      <c r="B159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D159" t="n">
+        <v>487934</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D160" t="n">
+        <v>577791</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>42</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D161" t="n">
+        <v>673915</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D162" t="n">
+        <v>103716</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D163" t="n">
+        <v>107546</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D164" t="n">
+        <v>111484</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D165" t="n">
+        <v>115520</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D166" t="n">
+        <v>119641</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D167" t="n">
+        <v>123842</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D168" t="n">
+        <v>145698</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D169" t="n">
+        <v>168588</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1123672</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1134005</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172" t="s">
+        <v>47</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1144770</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>46</v>
+      </c>
+      <c r="B173" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1155957</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1167480</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>46</v>
+      </c>
+      <c r="B175" t="s">
+        <v>47</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1179215</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176" t="s">
+        <v>47</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1239309</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" t="s">
+        <v>47</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1299458</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D178" t="n">
+        <v>904725</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>48</v>
+      </c>
+      <c r="B179" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D179" t="n">
+        <v>913015</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D180" t="n">
+        <v>921652</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>48</v>
+      </c>
+      <c r="B181" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D181" t="n">
+        <v>930630</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>48</v>
+      </c>
+      <c r="B182" t="s">
+        <v>49</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D182" t="n">
+        <v>939879</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>48</v>
+      </c>
+      <c r="B183" t="s">
+        <v>49</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D183" t="n">
+        <v>949298</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>48</v>
+      </c>
+      <c r="B184" t="s">
+        <v>49</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D184" t="n">
+        <v>997546</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" t="s">
+        <v>49</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1045847</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" t="s">
+        <v>51</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D186" t="n">
+        <v>638766</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>50</v>
+      </c>
+      <c r="B187" t="s">
+        <v>51</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D187" t="n">
+        <v>649970</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188" t="s">
+        <v>51</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D188" t="n">
+        <v>661504</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D189" t="n">
+        <v>673356</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" t="s">
+        <v>51</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D190" t="n">
+        <v>685510</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>50</v>
+      </c>
+      <c r="B191" t="s">
+        <v>51</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D191" t="n">
+        <v>697922</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192" t="s">
+        <v>51</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D192" t="n">
+        <v>763716</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D193" t="n">
+        <v>837598</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D194" t="n">
+        <v>297817</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D195" t="n">
+        <v>300589</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>52</v>
+      </c>
+      <c r="B196" t="s">
+        <v>53</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D196" t="n">
+        <v>303474</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>52</v>
+      </c>
+      <c r="B197" t="s">
+        <v>53</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D197" t="n">
+        <v>306471</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>52</v>
+      </c>
+      <c r="B198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D198" t="n">
+        <v>309557</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>52</v>
+      </c>
+      <c r="B199" t="s">
+        <v>53</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D199" t="n">
+        <v>312698</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>52</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D200" t="n">
+        <v>328774</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D201" t="n">
+        <v>344855</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1387275</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1400032</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>54</v>
+      </c>
+      <c r="B204" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1413323</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>54</v>
+      </c>
+      <c r="B205" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1427135</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>54</v>
+      </c>
+      <c r="B206" t="s">
+        <v>55</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1441361</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>54</v>
+      </c>
+      <c r="B207" t="s">
+        <v>55</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1455849</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>54</v>
+      </c>
+      <c r="B208" t="s">
+        <v>55</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1530043</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" t="s">
+        <v>55</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1604305</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" t="s">
+        <v>57</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D210" t="n">
+        <v>936675</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D211" t="n">
+        <v>958055</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>56</v>
+      </c>
+      <c r="B212" t="s">
+        <v>57</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D212" t="n">
+        <v>980002</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213" t="s">
+        <v>57</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1002499</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214" t="s">
+        <v>57</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1025422</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" t="s">
+        <v>57</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1048602</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>56</v>
+      </c>
+      <c r="B216" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1165974</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" t="s">
+        <v>57</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1283587</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>58</v>
+      </c>
+      <c r="B218" t="s">
+        <v>59</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D218" t="n">
+        <v>959187</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>58</v>
+      </c>
+      <c r="B219" t="s">
+        <v>59</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D219" t="n">
+        <v>994575</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>58</v>
+      </c>
+      <c r="B220" t="s">
+        <v>59</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1030973</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>58</v>
+      </c>
+      <c r="B221" t="s">
+        <v>59</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1068307</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>58</v>
+      </c>
+      <c r="B222" t="s">
+        <v>59</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1106444</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>58</v>
+      </c>
+      <c r="B223" t="s">
+        <v>59</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1145259</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>58</v>
+      </c>
+      <c r="B224" t="s">
+        <v>59</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1347440</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>58</v>
+      </c>
+      <c r="B225" t="s">
+        <v>59</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1559091</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>60</v>
+      </c>
+      <c r="B226" t="s">
+        <v>61</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D226" t="n">
+        <v>964170</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227" t="s">
+        <v>61</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D227" t="n">
+        <v>982921</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>60</v>
+      </c>
+      <c r="B228" t="s">
+        <v>61</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1002354</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1022427</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>60</v>
+      </c>
+      <c r="B230" t="s">
+        <v>61</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1042929</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>60</v>
+      </c>
+      <c r="B231" t="s">
+        <v>61</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1063721</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" t="s">
+        <v>61</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1170109</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>60</v>
+      </c>
+      <c r="B233" t="s">
+        <v>61</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1278221</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>62</v>
+      </c>
+      <c r="B234" t="s">
+        <v>63</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3144918</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>62</v>
+      </c>
+      <c r="B235" t="s">
+        <v>63</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3351315</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>62</v>
+      </c>
+      <c r="B236" t="s">
+        <v>63</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3563473</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>62</v>
+      </c>
+      <c r="B237" t="s">
+        <v>63</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3781394</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>62</v>
+      </c>
+      <c r="B238" t="s">
+        <v>63</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4004400</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>62</v>
+      </c>
+      <c r="B239" t="s">
+        <v>63</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4232087</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>62</v>
+      </c>
+      <c r="B240" t="s">
+        <v>63</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5433002</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>62</v>
+      </c>
+      <c r="B241" t="s">
+        <v>63</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D241" t="n">
+        <v>6723898</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>64</v>
+      </c>
+      <c r="B242" t="s">
+        <v>65</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1637474</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>64</v>
+      </c>
+      <c r="B243" t="s">
+        <v>65</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1697951</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>64</v>
+      </c>
+      <c r="B244" t="s">
+        <v>65</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1760571</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>64</v>
+      </c>
+      <c r="B245" t="s">
+        <v>65</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1825229</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>64</v>
+      </c>
+      <c r="B246" t="s">
+        <v>65</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1891739</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>64</v>
+      </c>
+      <c r="B247" t="s">
+        <v>65</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1959880</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>64</v>
+      </c>
+      <c r="B248" t="s">
+        <v>65</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2320819</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>64</v>
+      </c>
+      <c r="B249" t="s">
+        <v>65</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2706920</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>66</v>
+      </c>
+      <c r="B250" t="s">
+        <v>67</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D250" t="n">
+        <v>769022</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>66</v>
+      </c>
+      <c r="B251" t="s">
+        <v>67</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D251" t="n">
+        <v>797427</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>66</v>
+      </c>
+      <c r="B252" t="s">
+        <v>67</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D252" t="n">
+        <v>826838</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>66</v>
+      </c>
+      <c r="B253" t="s">
+        <v>67</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D253" t="n">
+        <v>857207</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>66</v>
+      </c>
+      <c r="B254" t="s">
+        <v>67</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D254" t="n">
+        <v>888435</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>66</v>
+      </c>
+      <c r="B255" t="s">
+        <v>67</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D255" t="n">
+        <v>920445</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>66</v>
+      </c>
+      <c r="B256" t="s">
+        <v>67</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1089953</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>66</v>
+      </c>
+      <c r="B257" t="s">
+        <v>67</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1271285</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>68</v>
+      </c>
+      <c r="B258" t="s">
+        <v>69</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D258" t="n">
+        <v>868770</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>68</v>
+      </c>
+      <c r="B259" t="s">
+        <v>69</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D259" t="n">
+        <v>900860</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>68</v>
+      </c>
+      <c r="B260" t="s">
+        <v>69</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D260" t="n">
+        <v>934085</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>68</v>
+      </c>
+      <c r="B261" t="s">
+        <v>69</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D261" t="n">
+        <v>968390</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>68</v>
+      </c>
+      <c r="B262" t="s">
+        <v>69</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1003672</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>68</v>
+      </c>
+      <c r="B263" t="s">
+        <v>69</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1039837</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>68</v>
+      </c>
+      <c r="B264" t="s">
+        <v>69</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1231331</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>68</v>
+      </c>
+      <c r="B265" t="s">
+        <v>69</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1436181</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>70</v>
+      </c>
+      <c r="B266" t="s">
+        <v>71</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D266" t="n">
+        <v>373672</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>70</v>
+      </c>
+      <c r="B267" t="s">
+        <v>71</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D267" t="n">
+        <v>377099</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>70</v>
+      </c>
+      <c r="B268" t="s">
+        <v>71</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D268" t="n">
+        <v>380669</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>70</v>
+      </c>
+      <c r="B269" t="s">
+        <v>71</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D269" t="n">
+        <v>384379</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270" t="s">
+        <v>71</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D270" t="n">
+        <v>388202</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271" t="s">
+        <v>71</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D271" t="n">
+        <v>392094</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>70</v>
+      </c>
+      <c r="B272" t="s">
+        <v>71</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D272" t="n">
+        <v>412033</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>70</v>
+      </c>
+      <c r="B273" t="s">
+        <v>71</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D273" t="n">
+        <v>431994</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>72</v>
+      </c>
+      <c r="B274" t="s">
+        <v>73</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D274" t="n">
+        <v>610976</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>72</v>
+      </c>
+      <c r="B275" t="s">
+        <v>73</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D275" t="n">
+        <v>624921</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>72</v>
+      </c>
+      <c r="B276" t="s">
+        <v>73</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D276" t="n">
+        <v>639238</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>72</v>
+      </c>
+      <c r="B277" t="s">
+        <v>73</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D277" t="n">
+        <v>653914</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>72</v>
+      </c>
+      <c r="B278" t="s">
+        <v>73</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D278" t="n">
+        <v>668863</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>72</v>
+      </c>
+      <c r="B279" t="s">
+        <v>73</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D279" t="n">
+        <v>683979</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>72</v>
+      </c>
+      <c r="B280" t="s">
+        <v>73</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D280" t="n">
+        <v>760541</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>72</v>
+      </c>
+      <c r="B281" t="s">
+        <v>73</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D281" t="n">
+        <v>837262</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>74</v>
+      </c>
+      <c r="B282" t="s">
+        <v>75</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D282" t="n">
+        <v>610017</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>74</v>
+      </c>
+      <c r="B283" t="s">
+        <v>75</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D283" t="n">
+        <v>621875</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>74</v>
+      </c>
+      <c r="B284" t="s">
+        <v>75</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D284" t="n">
+        <v>634172</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>74</v>
+      </c>
+      <c r="B285" t="s">
+        <v>75</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D285" t="n">
+        <v>646876</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>74</v>
+      </c>
+      <c r="B286" t="s">
+        <v>75</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D286" t="n">
+        <v>659848</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>74</v>
+      </c>
+      <c r="B287" t="s">
+        <v>75</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D287" t="n">
+        <v>673000</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>74</v>
+      </c>
+      <c r="B288" t="s">
+        <v>75</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D288" t="n">
+        <v>740314</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>74</v>
+      </c>
+      <c r="B289" t="s">
+        <v>75</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D289" t="n">
+        <v>808712</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>76</v>
+      </c>
+      <c r="B290" t="s">
+        <v>77</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D290" t="n">
+        <v>709595</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>76</v>
+      </c>
+      <c r="B291" t="s">
+        <v>77</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D291" t="n">
+        <v>723392</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>76</v>
+      </c>
+      <c r="B292" t="s">
+        <v>77</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D292" t="n">
+        <v>737704</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>76</v>
+      </c>
+      <c r="B293" t="s">
+        <v>77</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D293" t="n">
+        <v>752469</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>76</v>
+      </c>
+      <c r="B294" t="s">
+        <v>77</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D294" t="n">
+        <v>767560</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>76</v>
+      </c>
+      <c r="B295" t="s">
+        <v>77</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D295" t="n">
+        <v>782864</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>76</v>
+      </c>
+      <c r="B296" t="s">
+        <v>77</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D296" t="n">
+        <v>861162</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>76</v>
+      </c>
+      <c r="B297" t="s">
+        <v>77</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D297" t="n">
+        <v>940725</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>78</v>
+      </c>
+      <c r="B298" t="s">
+        <v>79</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D298" t="n">
+        <v>228762</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>78</v>
+      </c>
+      <c r="B299" t="s">
+        <v>79</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D299" t="n">
+        <v>237212</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>78</v>
+      </c>
+      <c r="B300" t="s">
+        <v>79</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D300" t="n">
+        <v>245962</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>78</v>
+      </c>
+      <c r="B301" t="s">
+        <v>79</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D301" t="n">
+        <v>254997</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>78</v>
+      </c>
+      <c r="B302" t="s">
+        <v>79</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D302" t="n">
+        <v>264284</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>78</v>
+      </c>
+      <c r="B303" t="s">
+        <v>79</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D303" t="n">
+        <v>273804</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>78</v>
+      </c>
+      <c r="B304" t="s">
+        <v>79</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D304" t="n">
+        <v>324230</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>78</v>
+      </c>
+      <c r="B305" t="s">
+        <v>79</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D305" t="n">
+        <v>378173</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>80</v>
+      </c>
+      <c r="B306" t="s">
+        <v>81</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D306" t="n">
+        <v>860216</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>80</v>
+      </c>
+      <c r="B307" t="s">
+        <v>81</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D307" t="n">
+        <v>879853</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>80</v>
+      </c>
+      <c r="B308" t="s">
+        <v>81</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D308" t="n">
+        <v>900009</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>80</v>
+      </c>
+      <c r="B309" t="s">
+        <v>81</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D309" t="n">
+        <v>920671</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>80</v>
+      </c>
+      <c r="B310" t="s">
+        <v>81</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D310" t="n">
+        <v>941724</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>80</v>
+      </c>
+      <c r="B311" t="s">
+        <v>81</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D311" t="n">
+        <v>963007</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>80</v>
+      </c>
+      <c r="B312" t="s">
+        <v>81</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1070797</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>80</v>
+      </c>
+      <c r="B313" t="s">
+        <v>81</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1178811</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>82</v>
+      </c>
+      <c r="B314" t="s">
+        <v>83</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D314" t="n">
+        <v>290789</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>82</v>
+      </c>
+      <c r="B315" t="s">
+        <v>83</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D315" t="n">
+        <v>301516</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>82</v>
+      </c>
+      <c r="B316" t="s">
+        <v>83</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D316" t="n">
+        <v>312550</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>82</v>
+      </c>
+      <c r="B317" t="s">
+        <v>83</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D317" t="n">
+        <v>323867</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>82</v>
+      </c>
+      <c r="B318" t="s">
+        <v>83</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D318" t="n">
+        <v>334042</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>82</v>
+      </c>
+      <c r="B319" t="s">
+        <v>83</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D319" t="n">
+        <v>347195</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>82</v>
+      </c>
+      <c r="B320" t="s">
+        <v>83</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D320" t="n">
+        <v>408492</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>82</v>
+      </c>
+      <c r="B321" t="s">
+        <v>83</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D321" t="n">
+        <v>472656</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>84</v>
+      </c>
+      <c r="B322" t="s">
+        <v>85</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D322" t="n">
+        <v>245301</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>84</v>
+      </c>
+      <c r="B323" t="s">
+        <v>85</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D323" t="n">
+        <v>254348</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>84</v>
+      </c>
+      <c r="B324" t="s">
+        <v>85</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D324" t="n">
+        <v>263654</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>84</v>
+      </c>
+      <c r="B325" t="s">
+        <v>85</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D325" t="n">
+        <v>273205</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>84</v>
+      </c>
+      <c r="B326" t="s">
+        <v>85</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D326" t="n">
+        <v>282958</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>84</v>
+      </c>
+      <c r="B327" t="s">
+        <v>85</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D327" t="n">
+        <v>292885</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>84</v>
+      </c>
+      <c r="B328" t="s">
+        <v>85</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D328" t="n">
+        <v>344595</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>84</v>
+      </c>
+      <c r="B329" t="s">
+        <v>85</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D329" t="n">
+        <v>398714</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>86</v>
+      </c>
+      <c r="B330" t="s">
+        <v>87</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D330" t="n">
+        <v>836332</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>86</v>
+      </c>
+      <c r="B331" t="s">
+        <v>87</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D331" t="n">
+        <v>867219</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>86</v>
+      </c>
+      <c r="B332" t="s">
+        <v>87</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D332" t="n">
+        <v>899200</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>86</v>
+      </c>
+      <c r="B333" t="s">
+        <v>87</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D333" t="n">
+        <v>932223</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>86</v>
+      </c>
+      <c r="B334" t="s">
+        <v>87</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D334" t="n">
+        <v>966197</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>86</v>
+      </c>
+      <c r="B335" t="s">
+        <v>87</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1001005</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>86</v>
+      </c>
+      <c r="B336" t="s">
+        <v>87</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1185347</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>86</v>
+      </c>
+      <c r="B337" t="s">
+        <v>87</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1382548</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>88</v>
+      </c>
+      <c r="B338" t="s">
+        <v>89</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D338" t="n">
+        <v>873575</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>88</v>
+      </c>
+      <c r="B339" t="s">
+        <v>89</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D339" t="n">
+        <v>905842</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>88</v>
+      </c>
+      <c r="B340" t="s">
+        <v>89</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D340" t="n">
+        <v>939247</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>88</v>
+      </c>
+      <c r="B341" t="s">
+        <v>89</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D341" t="n">
+        <v>973742</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>88</v>
+      </c>
+      <c r="B342" t="s">
+        <v>89</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1009225</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>88</v>
+      </c>
+      <c r="B343" t="s">
+        <v>89</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1045579</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>88</v>
+      </c>
+      <c r="B344" t="s">
+        <v>89</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1238136</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>88</v>
+      </c>
+      <c r="B345" t="s">
+        <v>89</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1444117</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>90</v>
+      </c>
+      <c r="B346" t="s">
+        <v>91</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D346" t="n">
+        <v>913027</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>90</v>
+      </c>
+      <c r="B347" t="s">
+        <v>91</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D347" t="n">
+        <v>946757</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>90</v>
+      </c>
+      <c r="B348" t="s">
+        <v>91</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D348" t="n">
+        <v>981669</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>90</v>
+      </c>
+      <c r="B349" t="s">
+        <v>91</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1017723</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>90</v>
+      </c>
+      <c r="B350" t="s">
+        <v>91</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1054805</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>90</v>
+      </c>
+      <c r="B351" t="s">
+        <v>91</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1092803</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>90</v>
+      </c>
+      <c r="B352" t="s">
+        <v>91</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1294058</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>90</v>
+      </c>
+      <c r="B353" t="s">
+        <v>91</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1509347</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>92</v>
+      </c>
+      <c r="B354" t="s">
+        <v>93</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D354" t="n">
+        <v>567387</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>92</v>
+      </c>
+      <c r="B355" t="s">
+        <v>93</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D355" t="n">
+        <v>576283</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>92</v>
+      </c>
+      <c r="B356" t="s">
+        <v>93</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D356" t="n">
+        <v>585582</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>92</v>
+      </c>
+      <c r="B357" t="s">
+        <v>93</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D357" t="n">
+        <v>595301</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>92</v>
+      </c>
+      <c r="B358" t="s">
+        <v>93</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D358" t="n">
+        <v>605379</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>92</v>
+      </c>
+      <c r="B359" t="s">
+        <v>93</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D359" t="n">
+        <v>615734</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>92</v>
+      </c>
+      <c r="B360" t="s">
+        <v>93</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D360" t="n">
+        <v>670601</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>92</v>
+      </c>
+      <c r="B361" t="s">
+        <v>93</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D361" t="n">
+        <v>730460</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>94</v>
+      </c>
+      <c r="B362" t="s">
+        <v>95</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D362" t="n">
+        <v>412210</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>94</v>
+      </c>
+      <c r="B363" t="s">
+        <v>95</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D363" t="n">
+        <v>419438</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>94</v>
+      </c>
+      <c r="B364" t="s">
+        <v>95</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D364" t="n">
+        <v>426883</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>94</v>
+      </c>
+      <c r="B365" t="s">
+        <v>95</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D365" t="n">
+        <v>434524</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>94</v>
+      </c>
+      <c r="B366" t="s">
+        <v>95</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D366" t="n">
+        <v>442371</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>94</v>
+      </c>
+      <c r="B367" t="s">
+        <v>95</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D367" t="n">
+        <v>450385</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>94</v>
+      </c>
+      <c r="B368" t="s">
+        <v>95</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D368" t="n">
+        <v>492839</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>94</v>
+      </c>
+      <c r="B369" t="s">
+        <v>95</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D369" t="n">
+        <v>540522</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B370" t="s">
         <v>97</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C370" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D370" t="n">
+        <v>523709</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>96</v>
+      </c>
+      <c r="B371" t="s">
+        <v>97</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D371" t="n">
+        <v>543054</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>96</v>
+      </c>
+      <c r="B372" t="s">
+        <v>97</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D372" t="n">
+        <v>563087</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>96</v>
+      </c>
+      <c r="B373" t="s">
+        <v>97</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D373" t="n">
+        <v>583767</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>96</v>
+      </c>
+      <c r="B374" t="s">
+        <v>97</v>
+      </c>
+      <c r="C374" t="n">
         <v>2014</v>
       </c>
-      <c r="D95" t="n">
-        <v>512690</v>
+      <c r="D374" t="n">
+        <v>605033</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>96</v>
+      </c>
+      <c r="B375" t="s">
+        <v>97</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D375" t="n">
+        <v>626832</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>96</v>
+      </c>
+      <c r="B376" t="s">
+        <v>97</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D376" t="n">
+        <v>742267</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>96</v>
+      </c>
+      <c r="B377" t="s">
+        <v>97</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D377" t="n">
+        <v>865754</v>
       </c>
     </row>
   </sheetData>
@@ -2124,16 +6090,52 @@
       <c r="C1" t="s">
         <v>99</v>
       </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>548700</v>
+        <v>567516</v>
       </c>
       <c r="C2" t="n">
-        <v>555561</v>
+        <v>588478</v>
+      </c>
+      <c r="D2" t="n">
+        <v>610182</v>
+      </c>
+      <c r="E2" t="n">
+        <v>632588</v>
+      </c>
+      <c r="F2" t="n">
+        <v>655641</v>
+      </c>
+      <c r="G2" t="n">
+        <v>679256</v>
+      </c>
+      <c r="H2" t="n">
+        <v>804346</v>
+      </c>
+      <c r="I2" t="n">
+        <v>938163</v>
       </c>
     </row>
     <row r="3">
@@ -2141,10 +6143,28 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>724000</v>
+        <v>745617</v>
       </c>
       <c r="C3" t="n">
-        <v>724186</v>
+        <v>773157</v>
+      </c>
+      <c r="D3" t="n">
+        <v>801671</v>
+      </c>
+      <c r="E3" t="n">
+        <v>831115</v>
+      </c>
+      <c r="F3" t="n">
+        <v>861397</v>
+      </c>
+      <c r="G3" t="n">
+        <v>892429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1015048</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1232590</v>
       </c>
     </row>
     <row r="4">
@@ -2152,10 +6172,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1362700</v>
+        <v>1406776</v>
       </c>
       <c r="C4" t="n">
-        <v>1375063</v>
+        <v>1428835</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1451892</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1475995</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1500990</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1526655</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1662709</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1811108</v>
       </c>
     </row>
     <row r="5">
@@ -2163,10 +6201,28 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>737100</v>
+        <v>761065</v>
       </c>
       <c r="C5" t="n">
-        <v>743946</v>
+        <v>772999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>785473</v>
+      </c>
+      <c r="E5" t="n">
+        <v>798514</v>
+      </c>
+      <c r="F5" t="n">
+        <v>812036</v>
+      </c>
+      <c r="G5" t="n">
+        <v>825921</v>
+      </c>
+      <c r="H5" t="n">
+        <v>899525</v>
+      </c>
+      <c r="I5" t="n">
+        <v>979809</v>
       </c>
     </row>
     <row r="6">
@@ -2174,10 +6230,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>366900</v>
+        <v>377942</v>
       </c>
       <c r="C6" t="n">
-        <v>369998</v>
+        <v>391900</v>
+      </c>
+      <c r="D6" t="n">
+        <v>406355</v>
+      </c>
+      <c r="E6" t="n">
+        <v>421282</v>
+      </c>
+      <c r="F6" t="n">
+        <v>436631</v>
+      </c>
+      <c r="G6" t="n">
+        <v>452360</v>
+      </c>
+      <c r="H6" t="n">
+        <v>535665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>624778</v>
       </c>
     </row>
     <row r="7">
@@ -2185,10 +6259,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>508500</v>
+        <v>528000</v>
       </c>
       <c r="C7" t="n">
-        <v>516212</v>
+        <v>532852</v>
+      </c>
+      <c r="D7" t="n">
+        <v>537906</v>
+      </c>
+      <c r="E7" t="n">
+        <v>543158</v>
+      </c>
+      <c r="F7" t="n">
+        <v>548569</v>
+      </c>
+      <c r="G7" t="n">
+        <v>554079</v>
+      </c>
+      <c r="H7" t="n">
+        <v>582297</v>
+      </c>
+      <c r="I7" t="n">
+        <v>610543</v>
       </c>
     </row>
     <row r="8">
@@ -2196,10 +6288,28 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>616900</v>
+        <v>387995</v>
       </c>
       <c r="C8" t="n">
-        <v>623060</v>
+        <v>394804</v>
+      </c>
+      <c r="D8" t="n">
+        <v>401806</v>
+      </c>
+      <c r="E8" t="n">
+        <v>409007</v>
+      </c>
+      <c r="F8" t="n">
+        <v>416389</v>
+      </c>
+      <c r="G8" t="n">
+        <v>423931</v>
+      </c>
+      <c r="H8" t="n">
+        <v>463891</v>
+      </c>
+      <c r="I8" t="n">
+        <v>508772</v>
       </c>
     </row>
     <row r="9">
@@ -2207,10 +6317,28 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>955200</v>
+        <v>984293</v>
       </c>
       <c r="C9" t="n">
-        <v>963794</v>
+        <v>1006756</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1029823</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1053465</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1077554</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1101901</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1225243</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1348840</v>
       </c>
     </row>
     <row r="10">
@@ -2218,10 +6346,28 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>139400</v>
+        <v>146567</v>
       </c>
       <c r="C10" t="n">
-        <v>143294</v>
+        <v>147928</v>
+      </c>
+      <c r="D10" t="n">
+        <v>149345</v>
+      </c>
+      <c r="E10" t="n">
+        <v>150817</v>
+      </c>
+      <c r="F10" t="n">
+        <v>152332</v>
+      </c>
+      <c r="G10" t="n">
+        <v>153875</v>
+      </c>
+      <c r="H10" t="n">
+        <v>161773</v>
+      </c>
+      <c r="I10" t="n">
+        <v>169674</v>
       </c>
     </row>
     <row r="11">
@@ -2229,10 +6375,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>677000</v>
+        <v>701919</v>
       </c>
       <c r="C11" t="n">
-        <v>687312</v>
+        <v>727849</v>
+      </c>
+      <c r="D11" t="n">
+        <v>754693</v>
+      </c>
+      <c r="E11" t="n">
+        <v>782409</v>
+      </c>
+      <c r="F11" t="n">
+        <v>810918</v>
+      </c>
+      <c r="G11" t="n">
+        <v>840127</v>
+      </c>
+      <c r="H11" t="n">
+        <v>994853</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1160358</v>
       </c>
     </row>
     <row r="12">
@@ -2240,10 +6404,28 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>1647200</v>
+        <v>1698576</v>
       </c>
       <c r="C12" t="n">
-        <v>1660651</v>
+        <v>1725211</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1753050</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1782152</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1812330</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1843320</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2007597</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2186771</v>
       </c>
     </row>
     <row r="13">
@@ -2251,10 +6433,28 @@
         <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>740600</v>
+        <v>768350</v>
       </c>
       <c r="C13" t="n">
-        <v>758339</v>
+        <v>796729</v>
+      </c>
+      <c r="D13" t="n">
+        <v>826112</v>
+      </c>
+      <c r="E13" t="n">
+        <v>856454</v>
+      </c>
+      <c r="F13" t="n">
+        <v>887659</v>
+      </c>
+      <c r="G13" t="n">
+        <v>919637</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1045996</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1270170</v>
       </c>
     </row>
     <row r="14">
@@ -2262,10 +6462,28 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>1603400</v>
+        <v>1660366</v>
       </c>
       <c r="C14" t="n">
-        <v>1623282</v>
+        <v>1692651</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1726128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1760692</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1795999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1831800</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2015014</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2201180</v>
       </c>
     </row>
     <row r="15">
@@ -2273,10 +6491,28 @@
         <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>1098700</v>
+        <v>1133208</v>
       </c>
       <c r="C15" t="n">
-        <v>1109735</v>
+        <v>1175021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1218024</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1262127</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1307185</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1353042</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1591901</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1841958</v>
       </c>
     </row>
     <row r="16">
@@ -2284,10 +6520,28 @@
         <v>32</v>
       </c>
       <c r="B16" t="n">
-        <v>521100</v>
+        <v>540247</v>
       </c>
       <c r="C16" t="n">
-        <v>528054</v>
+        <v>550745</v>
+      </c>
+      <c r="D16" t="n">
+        <v>561642</v>
+      </c>
+      <c r="E16" t="n">
+        <v>572889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>584377</v>
+      </c>
+      <c r="G16" t="n">
+        <v>596030</v>
+      </c>
+      <c r="H16" t="n">
+        <v>655639</v>
+      </c>
+      <c r="I16" t="n">
+        <v>716215</v>
       </c>
     </row>
     <row r="17">
@@ -2295,10 +6549,28 @@
         <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>1142100</v>
+        <v>1176791</v>
       </c>
       <c r="C17" t="n">
-        <v>1152282</v>
+        <v>1203648</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1231223</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1259489</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1288290</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1317407</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1464861</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1612630</v>
       </c>
     </row>
     <row r="18">
@@ -2306,10 +6578,28 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>952900</v>
+        <v>989514</v>
       </c>
       <c r="C18" t="n">
-        <v>968909</v>
+        <v>1012102</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1035287</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1059053</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1083268</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1107755</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1231745</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1355998</v>
       </c>
     </row>
     <row r="19">
@@ -2317,10 +6607,28 @@
         <v>38</v>
       </c>
       <c r="B19" t="n">
-        <v>997800</v>
+        <v>1035831</v>
       </c>
       <c r="C19" t="n">
-        <v>1012709</v>
+        <v>1045268</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1055104</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1065329</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1075866</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1086599</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1141592</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1196663</v>
       </c>
     </row>
     <row r="20">
@@ -2328,10 +6636,28 @@
         <v>40</v>
       </c>
       <c r="B20" t="n">
-        <v>643100</v>
+        <v>663906</v>
       </c>
       <c r="C20" t="n">
-        <v>649931</v>
+        <v>688398</v>
+      </c>
+      <c r="D20" t="n">
+        <v>713591</v>
+      </c>
+      <c r="E20" t="n">
+        <v>739435</v>
+      </c>
+      <c r="F20" t="n">
+        <v>765831</v>
+      </c>
+      <c r="G20" t="n">
+        <v>792698</v>
+      </c>
+      <c r="H20" t="n">
+        <v>932641</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1079131</v>
       </c>
     </row>
     <row r="21">
@@ -2339,10 +6665,28 @@
         <v>42</v>
       </c>
       <c r="B21" t="n">
-        <v>391600</v>
+        <v>407658</v>
       </c>
       <c r="C21" t="n">
-        <v>399227</v>
+        <v>422718</v>
+      </c>
+      <c r="D21" t="n">
+        <v>438309</v>
+      </c>
+      <c r="E21" t="n">
+        <v>454412</v>
+      </c>
+      <c r="F21" t="n">
+        <v>470965</v>
+      </c>
+      <c r="G21" t="n">
+        <v>487934</v>
+      </c>
+      <c r="H21" t="n">
+        <v>577791</v>
+      </c>
+      <c r="I21" t="n">
+        <v>673915</v>
       </c>
     </row>
     <row r="22">
@@ -2350,10 +6694,28 @@
         <v>44</v>
       </c>
       <c r="B22" t="n">
-        <v>99500</v>
+        <v>103716</v>
       </c>
       <c r="C22" t="n">
-        <v>101539</v>
+        <v>107546</v>
+      </c>
+      <c r="D22" t="n">
+        <v>111484</v>
+      </c>
+      <c r="E22" t="n">
+        <v>115520</v>
+      </c>
+      <c r="F22" t="n">
+        <v>119641</v>
+      </c>
+      <c r="G22" t="n">
+        <v>123842</v>
+      </c>
+      <c r="H22" t="n">
+        <v>145698</v>
+      </c>
+      <c r="I22" t="n">
+        <v>168588</v>
       </c>
     </row>
     <row r="23">
@@ -2361,10 +6723,28 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>1085600</v>
+        <v>1123672</v>
       </c>
       <c r="C23" t="n">
-        <v>1098584</v>
+        <v>1134005</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1144770</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1155957</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1167480</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1179215</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1239309</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1299458</v>
       </c>
     </row>
     <row r="24">
@@ -2372,10 +6752,28 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>874400</v>
+        <v>904725</v>
       </c>
       <c r="C24" t="n">
-        <v>884527</v>
+        <v>913015</v>
+      </c>
+      <c r="D24" t="n">
+        <v>921652</v>
+      </c>
+      <c r="E24" t="n">
+        <v>930630</v>
+      </c>
+      <c r="F24" t="n">
+        <v>939879</v>
+      </c>
+      <c r="G24" t="n">
+        <v>949298</v>
+      </c>
+      <c r="H24" t="n">
+        <v>997546</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1045847</v>
       </c>
     </row>
     <row r="25">
@@ -2383,10 +6781,28 @@
         <v>50</v>
       </c>
       <c r="B25" t="n">
-        <v>1023100</v>
+        <v>638766</v>
       </c>
       <c r="C25" t="n">
-        <v>1025756</v>
+        <v>649970</v>
+      </c>
+      <c r="D25" t="n">
+        <v>661504</v>
+      </c>
+      <c r="E25" t="n">
+        <v>673356</v>
+      </c>
+      <c r="F25" t="n">
+        <v>685510</v>
+      </c>
+      <c r="G25" t="n">
+        <v>697922</v>
+      </c>
+      <c r="H25" t="n">
+        <v>763716</v>
+      </c>
+      <c r="I25" t="n">
+        <v>837598</v>
       </c>
     </row>
     <row r="26">
@@ -2394,10 +6810,28 @@
         <v>52</v>
       </c>
       <c r="B26" t="n">
-        <v>288400</v>
+        <v>297817</v>
       </c>
       <c r="C26" t="n">
-        <v>291166</v>
+        <v>300589</v>
+      </c>
+      <c r="D26" t="n">
+        <v>303474</v>
+      </c>
+      <c r="E26" t="n">
+        <v>306471</v>
+      </c>
+      <c r="F26" t="n">
+        <v>309557</v>
+      </c>
+      <c r="G26" t="n">
+        <v>312698</v>
+      </c>
+      <c r="H26" t="n">
+        <v>328774</v>
+      </c>
+      <c r="I26" t="n">
+        <v>344855</v>
       </c>
     </row>
     <row r="27">
@@ -2405,10 +6839,28 @@
         <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>1337700</v>
+        <v>1387275</v>
       </c>
       <c r="C27" t="n">
-        <v>1356301</v>
+        <v>1400032</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1413323</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1427135</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1441361</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1455849</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1530043</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1604305</v>
       </c>
     </row>
     <row r="28">
@@ -2416,10 +6868,28 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>907700</v>
+        <v>936675</v>
       </c>
       <c r="C28" t="n">
-        <v>917170</v>
+        <v>958055</v>
+      </c>
+      <c r="D28" t="n">
+        <v>980002</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1002499</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1025422</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1048602</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1165974</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1283587</v>
       </c>
     </row>
     <row r="29">
@@ -2427,10 +6897,28 @@
         <v>58</v>
       </c>
       <c r="B29" t="n">
-        <v>920600</v>
+        <v>959187</v>
       </c>
       <c r="C29" t="n">
-        <v>939370</v>
+        <v>994575</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1030973</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1068307</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1106444</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1145259</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1347440</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1559091</v>
       </c>
     </row>
     <row r="30">
@@ -2438,10 +6926,28 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>935600</v>
+        <v>964170</v>
       </c>
       <c r="C30" t="n">
-        <v>942581</v>
+        <v>982921</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1002354</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1022427</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1042929</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1063721</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1170109</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1278221</v>
       </c>
     </row>
     <row r="31">
@@ -2449,10 +6955,28 @@
         <v>62</v>
       </c>
       <c r="B31" t="n">
-        <v>3078900</v>
+        <v>3144918</v>
       </c>
       <c r="C31" t="n">
-        <v>3138369</v>
+        <v>3351315</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3563473</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3781394</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4004400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4232087</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5433002</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6723898</v>
       </c>
     </row>
     <row r="32">
@@ -2460,10 +6984,28 @@
         <v>64</v>
       </c>
       <c r="B32" t="n">
-        <v>1566100</v>
+        <v>1637474</v>
       </c>
       <c r="C32" t="n">
-        <v>1603325</v>
+        <v>1697951</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1760571</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1825229</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1891739</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1959880</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2320819</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2706920</v>
       </c>
     </row>
     <row r="33">
@@ -2471,10 +7013,28 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>742800</v>
+        <v>769022</v>
       </c>
       <c r="C33" t="n">
-        <v>752965</v>
+        <v>797427</v>
+      </c>
+      <c r="D33" t="n">
+        <v>826838</v>
+      </c>
+      <c r="E33" t="n">
+        <v>857207</v>
+      </c>
+      <c r="F33" t="n">
+        <v>888435</v>
+      </c>
+      <c r="G33" t="n">
+        <v>920445</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1089953</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1271285</v>
       </c>
     </row>
     <row r="34">
@@ -2482,10 +7042,28 @@
         <v>68</v>
       </c>
       <c r="B34" t="n">
-        <v>841600</v>
+        <v>868770</v>
       </c>
       <c r="C34" t="n">
-        <v>850920</v>
+        <v>900860</v>
+      </c>
+      <c r="D34" t="n">
+        <v>934085</v>
+      </c>
+      <c r="E34" t="n">
+        <v>968390</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1003672</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1039837</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1231331</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1436181</v>
       </c>
     </row>
     <row r="35">
@@ -2493,10 +7071,28 @@
         <v>70</v>
       </c>
       <c r="B35" t="n">
-        <v>360200</v>
+        <v>373672</v>
       </c>
       <c r="C35" t="n">
-        <v>365330</v>
+        <v>377099</v>
+      </c>
+      <c r="D35" t="n">
+        <v>380669</v>
+      </c>
+      <c r="E35" t="n">
+        <v>384379</v>
+      </c>
+      <c r="F35" t="n">
+        <v>388202</v>
+      </c>
+      <c r="G35" t="n">
+        <v>392094</v>
+      </c>
+      <c r="H35" t="n">
+        <v>412033</v>
+      </c>
+      <c r="I35" t="n">
+        <v>431994</v>
       </c>
     </row>
     <row r="36">
@@ -2504,10 +7100,28 @@
         <v>72</v>
       </c>
       <c r="B36" t="n">
-        <v>592300</v>
+        <v>610976</v>
       </c>
       <c r="C36" t="n">
-        <v>598252</v>
+        <v>624921</v>
+      </c>
+      <c r="D36" t="n">
+        <v>639238</v>
+      </c>
+      <c r="E36" t="n">
+        <v>653914</v>
+      </c>
+      <c r="F36" t="n">
+        <v>668863</v>
+      </c>
+      <c r="G36" t="n">
+        <v>683979</v>
+      </c>
+      <c r="H36" t="n">
+        <v>760541</v>
+      </c>
+      <c r="I36" t="n">
+        <v>837262</v>
       </c>
     </row>
     <row r="37">
@@ -2515,10 +7129,28 @@
         <v>74</v>
       </c>
       <c r="B37" t="n">
-        <v>589600</v>
+        <v>610017</v>
       </c>
       <c r="C37" t="n">
-        <v>596268</v>
+        <v>621875</v>
+      </c>
+      <c r="D37" t="n">
+        <v>634172</v>
+      </c>
+      <c r="E37" t="n">
+        <v>646876</v>
+      </c>
+      <c r="F37" t="n">
+        <v>659848</v>
+      </c>
+      <c r="G37" t="n">
+        <v>673000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>740314</v>
+      </c>
+      <c r="I37" t="n">
+        <v>808712</v>
       </c>
     </row>
     <row r="38">
@@ -2526,10 +7158,28 @@
         <v>76</v>
       </c>
       <c r="B38" t="n">
-        <v>679300</v>
+        <v>709595</v>
       </c>
       <c r="C38" t="n">
-        <v>693558</v>
+        <v>723392</v>
+      </c>
+      <c r="D38" t="n">
+        <v>737704</v>
+      </c>
+      <c r="E38" t="n">
+        <v>752469</v>
+      </c>
+      <c r="F38" t="n">
+        <v>767560</v>
+      </c>
+      <c r="G38" t="n">
+        <v>782864</v>
+      </c>
+      <c r="H38" t="n">
+        <v>861162</v>
+      </c>
+      <c r="I38" t="n">
+        <v>940725</v>
       </c>
     </row>
     <row r="39">
@@ -2537,10 +7187,28 @@
         <v>78</v>
       </c>
       <c r="B39" t="n">
-        <v>221300</v>
+        <v>228762</v>
       </c>
       <c r="C39" t="n">
-        <v>223947</v>
+        <v>237212</v>
+      </c>
+      <c r="D39" t="n">
+        <v>245962</v>
+      </c>
+      <c r="E39" t="n">
+        <v>254997</v>
+      </c>
+      <c r="F39" t="n">
+        <v>264284</v>
+      </c>
+      <c r="G39" t="n">
+        <v>273804</v>
+      </c>
+      <c r="H39" t="n">
+        <v>324230</v>
+      </c>
+      <c r="I39" t="n">
+        <v>378173</v>
       </c>
     </row>
     <row r="40">
@@ -2548,10 +7216,28 @@
         <v>80</v>
       </c>
       <c r="B40" t="n">
-        <v>834000</v>
+        <v>860216</v>
       </c>
       <c r="C40" t="n">
-        <v>842304</v>
+        <v>879853</v>
+      </c>
+      <c r="D40" t="n">
+        <v>900009</v>
+      </c>
+      <c r="E40" t="n">
+        <v>920671</v>
+      </c>
+      <c r="F40" t="n">
+        <v>941724</v>
+      </c>
+      <c r="G40" t="n">
+        <v>963007</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1070797</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1178811</v>
       </c>
     </row>
     <row r="41">
@@ -2559,10 +7245,28 @@
         <v>82</v>
       </c>
       <c r="B41" t="n">
-        <v>274900</v>
+        <v>290789</v>
       </c>
       <c r="C41" t="n">
-        <v>284657</v>
+        <v>301516</v>
+      </c>
+      <c r="D41" t="n">
+        <v>312550</v>
+      </c>
+      <c r="E41" t="n">
+        <v>323867</v>
+      </c>
+      <c r="F41" t="n">
+        <v>334042</v>
+      </c>
+      <c r="G41" t="n">
+        <v>347195</v>
+      </c>
+      <c r="H41" t="n">
+        <v>408492</v>
+      </c>
+      <c r="I41" t="n">
+        <v>472656</v>
       </c>
     </row>
     <row r="42">
@@ -2570,10 +7274,28 @@
         <v>84</v>
       </c>
       <c r="B42" t="n">
-        <v>238900</v>
+        <v>245301</v>
       </c>
       <c r="C42" t="n">
-        <v>240075</v>
+        <v>254348</v>
+      </c>
+      <c r="D42" t="n">
+        <v>263654</v>
+      </c>
+      <c r="E42" t="n">
+        <v>273205</v>
+      </c>
+      <c r="F42" t="n">
+        <v>282958</v>
+      </c>
+      <c r="G42" t="n">
+        <v>292885</v>
+      </c>
+      <c r="H42" t="n">
+        <v>344595</v>
+      </c>
+      <c r="I42" t="n">
+        <v>398714</v>
       </c>
     </row>
     <row r="43">
@@ -2581,10 +7303,28 @@
         <v>86</v>
       </c>
       <c r="B43" t="n">
-        <v>809600</v>
+        <v>836332</v>
       </c>
       <c r="C43" t="n">
-        <v>818757</v>
+        <v>867219</v>
+      </c>
+      <c r="D43" t="n">
+        <v>899200</v>
+      </c>
+      <c r="E43" t="n">
+        <v>932223</v>
+      </c>
+      <c r="F43" t="n">
+        <v>966197</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1001005</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1185347</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1382548</v>
       </c>
     </row>
     <row r="44">
@@ -2592,10 +7332,28 @@
         <v>88</v>
       </c>
       <c r="B44" t="n">
-        <v>848400</v>
+        <v>873575</v>
       </c>
       <c r="C44" t="n">
-        <v>855399</v>
+        <v>905842</v>
+      </c>
+      <c r="D44" t="n">
+        <v>939247</v>
+      </c>
+      <c r="E44" t="n">
+        <v>973742</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1009225</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1045579</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1238136</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1444117</v>
       </c>
     </row>
     <row r="45">
@@ -2603,10 +7361,28 @@
         <v>90</v>
       </c>
       <c r="B45" t="n">
-        <v>872200</v>
+        <v>913027</v>
       </c>
       <c r="C45" t="n">
-        <v>894179</v>
+        <v>946757</v>
+      </c>
+      <c r="D45" t="n">
+        <v>981669</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1017723</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1054805</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1092803</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1294058</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1509347</v>
       </c>
     </row>
     <row r="46">
@@ -2614,10 +7390,28 @@
         <v>92</v>
       </c>
       <c r="B46" t="n">
-        <v>549000</v>
+        <v>567387</v>
       </c>
       <c r="C46" t="n">
-        <v>554622</v>
+        <v>576283</v>
+      </c>
+      <c r="D46" t="n">
+        <v>585582</v>
+      </c>
+      <c r="E46" t="n">
+        <v>595301</v>
+      </c>
+      <c r="F46" t="n">
+        <v>605379</v>
+      </c>
+      <c r="G46" t="n">
+        <v>615734</v>
+      </c>
+      <c r="H46" t="n">
+        <v>670601</v>
+      </c>
+      <c r="I46" t="n">
+        <v>730460</v>
       </c>
     </row>
     <row r="47">
@@ -2625,10 +7419,28 @@
         <v>94</v>
       </c>
       <c r="B47" t="n">
-        <v>658100</v>
+        <v>412210</v>
       </c>
       <c r="C47" t="n">
-        <v>661941</v>
+        <v>419438</v>
+      </c>
+      <c r="D47" t="n">
+        <v>426883</v>
+      </c>
+      <c r="E47" t="n">
+        <v>434524</v>
+      </c>
+      <c r="F47" t="n">
+        <v>442371</v>
+      </c>
+      <c r="G47" t="n">
+        <v>450385</v>
+      </c>
+      <c r="H47" t="n">
+        <v>492839</v>
+      </c>
+      <c r="I47" t="n">
+        <v>540522</v>
       </c>
     </row>
     <row r="48">
@@ -2636,10 +7448,28 @@
         <v>96</v>
       </c>
       <c r="B48" t="n">
-        <v>509600</v>
+        <v>523709</v>
       </c>
       <c r="C48" t="n">
-        <v>512690</v>
+        <v>543054</v>
+      </c>
+      <c r="D48" t="n">
+        <v>563087</v>
+      </c>
+      <c r="E48" t="n">
+        <v>583767</v>
+      </c>
+      <c r="F48" t="n">
+        <v>605033</v>
+      </c>
+      <c r="G48" t="n">
+        <v>626832</v>
+      </c>
+      <c r="H48" t="n">
+        <v>742267</v>
+      </c>
+      <c r="I48" t="n">
+        <v>865754</v>
       </c>
     </row>
   </sheetData>
